--- a/225模型/JS_Mons225.xlsx
+++ b/225模型/JS_Mons225.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,11 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>J_index225</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>LastTime</t>
         </is>
       </c>
@@ -561,8 +566,11 @@
       <c r="O2" t="n">
         <v>63380</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>44075.65917824074</v>
+      <c r="P2" t="n">
+        <v>23138</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>44075.87328703704</v>
       </c>
     </row>
   </sheetData>
